--- a/data/trans_camb/P9_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_2_R-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,6</t>
+          <t>-1,53; 2,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,58</t>
+          <t>-2,3; 1,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -1,08</t>
+          <t>-3,87; -1,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,74</t>
+          <t>-2,61; 3,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,26</t>
+          <t>-3,61; 1,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,95</t>
+          <t>-3,19; 4,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,1</t>
+          <t>-1,29; 2,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,63</t>
+          <t>-2,38; 0,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,15</t>
+          <t>-2,91; 1,11</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 205,35</t>
+          <t>-50,92; 194,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,57; 112,9</t>
+          <t>-73,86; 121,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 93,85</t>
+          <t>-47,17; 103,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,46; 51,58</t>
+          <t>-68,34; 45,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,39; 145,24</t>
+          <t>-65,22; 165,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 85,16</t>
+          <t>-34,18; 84,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 32,89</t>
+          <t>-60,47; 34,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,38; 52,35</t>
+          <t>-76,72; 49,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,53</t>
+          <t>-1,09; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,03</t>
+          <t>-0,86; 3,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 8,43</t>
+          <t>1,78; 8,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 0,84</t>
+          <t>-4,97; 0,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,31</t>
+          <t>-4,51; 1,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,12</t>
+          <t>-4,59; 1,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,03</t>
+          <t>-2,17; 1,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,59</t>
+          <t>-1,94; 1,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,62</t>
+          <t>-0,44; 3,85</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 158,66</t>
+          <t>-31,8; 151,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 160,55</t>
+          <t>-28,56; 166,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,94; 450,72</t>
+          <t>43,22; 464,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 16,3</t>
+          <t>-57,79; 12,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,49; 23,18</t>
+          <t>-53,21; 25,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 22,41</t>
+          <t>-57,15; 23,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 25,93</t>
+          <t>-40,36; 26,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 41,58</t>
+          <t>-36,29; 39,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 91,92</t>
+          <t>-10,28; 94,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,05</t>
+          <t>-1,11; 3,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,71</t>
+          <t>-2,73; 1,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,38</t>
+          <t>-0,64; 5,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 6,0</t>
+          <t>-0,23; 6,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 2,34</t>
+          <t>-3,6; 2,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,89</t>
+          <t>-1,19; 5,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,11</t>
+          <t>-0,21; 4,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,24</t>
+          <t>-2,51; 1,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,21</t>
+          <t>-0,13; 4,05</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 115,45</t>
+          <t>-19,7; 115,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,77; 51,84</t>
+          <t>-47,88; 56,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 157,67</t>
+          <t>-11,61; 149,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 88,72</t>
+          <t>-2,59; 91,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 34,01</t>
+          <t>-36,33; 35,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 75,68</t>
+          <t>-11,82; 74,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 74,73</t>
+          <t>-3,13; 69,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 24,39</t>
+          <t>-33,0; 21,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 70,81</t>
+          <t>-2,38; 71,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,34</t>
+          <t>-1,84; 4,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,64</t>
+          <t>-0,79; 5,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,77</t>
+          <t>1,23; 9,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 6,82</t>
+          <t>-2,31; 6,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,7</t>
+          <t>-4,44; 3,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 6,29</t>
+          <t>-1,53; 6,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,64</t>
+          <t>-0,84; 4,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,59</t>
+          <t>-1,61; 3,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,53</t>
+          <t>1,22; 6,54</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 85,41</t>
+          <t>-22,98; 86,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 112,97</t>
+          <t>-10,17; 109,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,57; 162,89</t>
+          <t>15,55; 177,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 61,59</t>
+          <t>-15,47; 63,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 33,92</t>
+          <t>-29,6; 33,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 60,11</t>
+          <t>-10,5; 60,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 53,58</t>
+          <t>-7,37; 53,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 41,51</t>
+          <t>-14,64; 39,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,85; 77,65</t>
+          <t>10,86; 76,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 6,98</t>
+          <t>-2,53; 7,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 2,72</t>
+          <t>-6,58; 3,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,57; 9,77</t>
+          <t>1,16; 10,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,58; 17,77</t>
+          <t>6,64; 17,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,69; 13,58</t>
+          <t>2,4; 13,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,53; 11,56</t>
+          <t>2,27; 11,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,91</t>
+          <t>3,16; 10,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,53</t>
+          <t>-0,31; 6,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,86; 9,7</t>
+          <t>3,02; 9,47</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 65,5</t>
+          <t>-16,31; 63,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 24,89</t>
+          <t>-39,45; 27,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,22; 88,32</t>
+          <t>5,31; 94,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>34,24; 137,82</t>
+          <t>36,11; 137,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,32; 106,96</t>
+          <t>12,11; 103,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,83; 90,85</t>
+          <t>12,85; 91,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,05; 83,53</t>
+          <t>17,54; 83,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 49,74</t>
+          <t>-2,25; 48,61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,57; 77,12</t>
+          <t>18,67; 74,31</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,57; 14,33</t>
+          <t>3,92; 15,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 5,11</t>
+          <t>-4,5; 5,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 4,35</t>
+          <t>-4,84; 4,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,65; 18,17</t>
+          <t>7,43; 18,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,13; 13,14</t>
+          <t>2,32; 13,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 7,8</t>
+          <t>-9,95; 8,01</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,73</t>
+          <t>7,48; 14,9</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,48; 8,07</t>
+          <t>0,68; 8,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 4,91</t>
+          <t>-6,17; 4,77</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,15; 69,33</t>
+          <t>14,38; 72,94</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 23,85</t>
+          <t>-16,92; 25,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 20,68</t>
+          <t>-17,77; 20,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>19,32; 55,08</t>
+          <t>18,99; 54,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,62; 39,99</t>
+          <t>5,91; 39,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 23,06</t>
+          <t>-26,25; 22,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>21,26; 50,66</t>
+          <t>22,89; 51,99</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,19; 27,93</t>
+          <t>1,93; 28,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 16,63</t>
+          <t>-18,58; 16,26</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,26</t>
+          <t>1,33; 4,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,39</t>
+          <t>-0,22; 2,47</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,16</t>
+          <t>3,2; 6,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,02</t>
+          <t>3,39; 7,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,98</t>
+          <t>1,26; 4,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,47</t>
+          <t>2,61; 6,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,32</t>
+          <t>3,03; 5,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,37</t>
+          <t>1,02; 3,36</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,97</t>
+          <t>3,48; 6,04</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>15,92; 55,59</t>
+          <t>14,68; 57,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 31,85</t>
+          <t>-3,23; 32,23</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>34,79; 83,17</t>
+          <t>35,94; 82,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>21,89; 51,02</t>
+          <t>22,05; 51,46</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>7,98; 36,11</t>
+          <t>7,85; 35,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>16,78; 47,11</t>
+          <t>17,49; 46,96</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>24,18; 48,43</t>
+          <t>25,82; 50,9</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>7,97; 30,45</t>
+          <t>8,56; 31,12</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>28,3; 54,87</t>
+          <t>29,07; 55,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_2_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,51</t>
+          <t>-1,4; 2,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,62</t>
+          <t>-2,32; 1,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -1,12</t>
+          <t>-3,81; -1,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,09</t>
+          <t>-2,48; 2,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 1,27</t>
+          <t>-3,83; 1,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,93</t>
+          <t>-3,34; 4,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,06</t>
+          <t>-1,31; 1,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,77</t>
+          <t>-2,46; 0,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,11</t>
+          <t>-3,02; 0,79</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 194,06</t>
+          <t>-47,54; 179,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,86; 121,56</t>
+          <t>-75,74; 134,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,17; 103,76</t>
+          <t>-45,15; 94,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,34; 45,65</t>
+          <t>-67,74; 43,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,22; 165,6</t>
+          <t>-67,4; 132,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 84,26</t>
+          <t>-34,78; 76,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,47; 34,92</t>
+          <t>-60,93; 30,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,72; 49,15</t>
+          <t>-79,21; 38,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,46</t>
+          <t>-1,02; 2,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,04</t>
+          <t>-1,05; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 8,45</t>
+          <t>1,74; 8,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 0,66</t>
+          <t>-4,78; 0,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,28</t>
+          <t>-4,54; 1,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,34</t>
+          <t>-4,67; 1,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,07</t>
+          <t>-2,11; 0,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,47</t>
+          <t>-1,89; 1,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,85</t>
+          <t>-0,71; 3,66</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 151,7</t>
+          <t>-33,13; 148,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 166,98</t>
+          <t>-32,55; 153,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,22; 464,92</t>
+          <t>47,37; 436,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,79; 12,73</t>
+          <t>-56,39; 17,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,21; 25,42</t>
+          <t>-55,32; 20,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,15; 23,16</t>
+          <t>-56,47; 23,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 26,7</t>
+          <t>-41,09; 25,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,29; 39,77</t>
+          <t>-34,68; 41,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 94,82</t>
+          <t>-14,37; 94,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,82</t>
+          <t>-1,42; 3,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,84</t>
+          <t>-2,76; 1,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 5,07</t>
+          <t>-0,88; 5,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 6,23</t>
+          <t>-0,41; 6,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,32</t>
+          <t>-3,65; 2,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 5,07</t>
+          <t>-1,17; 4,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,01</t>
+          <t>-0,09; 4,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,22</t>
+          <t>-2,8; 1,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,05</t>
+          <t>-0,24; 4,09</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 115,54</t>
+          <t>-23,73; 111,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 56,54</t>
+          <t>-46,3; 53,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 149,93</t>
+          <t>-15,79; 140,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 91,2</t>
+          <t>-5,42; 89,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,33; 35,99</t>
+          <t>-37,77; 33,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 74,52</t>
+          <t>-11,48; 73,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 69,52</t>
+          <t>-1,83; 77,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 21,58</t>
+          <t>-35,97; 19,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 71,98</t>
+          <t>-1,99; 75,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,41</t>
+          <t>-1,93; 4,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 5,59</t>
+          <t>-0,83; 5,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 9,08</t>
+          <t>1,08; 8,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 6,57</t>
+          <t>-2,19; 6,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,44</t>
+          <t>-4,55; 3,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 6,52</t>
+          <t>-1,17; 6,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,52</t>
+          <t>-0,64; 4,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,31</t>
+          <t>-1,4; 3,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,54</t>
+          <t>0,95; 6,36</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 86,24</t>
+          <t>-24,28; 86,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 109,78</t>
+          <t>-9,7; 112,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,55; 177,79</t>
+          <t>11,07; 159,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 63,51</t>
+          <t>-14,54; 60,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 33,7</t>
+          <t>-29,92; 30,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 60,89</t>
+          <t>-9,48; 64,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 53,25</t>
+          <t>-6,27; 58,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 39,41</t>
+          <t>-12,86; 46,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,86; 76,35</t>
+          <t>8,85; 75,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 7,1</t>
+          <t>-2,63; 7,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 3,01</t>
+          <t>-6,11; 3,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,24</t>
+          <t>0,71; 10,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,64; 17,7</t>
+          <t>5,91; 17,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,4; 13,42</t>
+          <t>2,61; 13,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,25</t>
+          <t>1,99; 11,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,16; 10,91</t>
+          <t>3,29; 11,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 6,41</t>
+          <t>0,09; 7,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,47</t>
+          <t>2,79; 9,39</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 63,21</t>
+          <t>-16,71; 65,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 27,77</t>
+          <t>-38,37; 31,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,31; 94,43</t>
+          <t>3,25; 88,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>36,11; 137,87</t>
+          <t>31,32; 132,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,11; 103,49</t>
+          <t>13,61; 101,58</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,85; 91,3</t>
+          <t>10,71; 92,45</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,54; 83,72</t>
+          <t>19,39; 84,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 48,61</t>
+          <t>-0,17; 55,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>18,67; 74,31</t>
+          <t>16,27; 74,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,92; 15,25</t>
+          <t>3,28; 14,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 5,41</t>
+          <t>-5,29; 4,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 4,32</t>
+          <t>-4,85; 4,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,43; 18,05</t>
+          <t>7,67; 18,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,32; 13,27</t>
+          <t>2,23; 12,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 8,01</t>
+          <t>-9,04; 8,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,48; 14,9</t>
+          <t>7,26; 15,14</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,68; 8,35</t>
+          <t>0,3; 7,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 4,77</t>
+          <t>-5,27; 4,85</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,38; 72,94</t>
+          <t>11,28; 69,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 25,11</t>
+          <t>-19,54; 22,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 20,35</t>
+          <t>-18,55; 21,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,99; 54,16</t>
+          <t>19,43; 55,35</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,91; 39,85</t>
+          <t>6,19; 37,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 22,97</t>
+          <t>-24,29; 23,83</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>22,89; 51,99</t>
+          <t>22,54; 52,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,93; 28,79</t>
+          <t>1,09; 27,73</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 16,26</t>
+          <t>-16,33; 16,45</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,28</t>
+          <t>1,34; 4,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,47</t>
+          <t>-0,46; 2,39</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,22</t>
+          <t>3,15; 6,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,15</t>
+          <t>3,59; 7,28</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,87</t>
+          <t>1,27; 4,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,42</t>
+          <t>2,55; 6,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,47</t>
+          <t>2,9; 5,37</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,36</t>
+          <t>1,02; 3,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,04</t>
+          <t>3,52; 6,1</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>14,68; 57,27</t>
+          <t>14,25; 55,93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 32,23</t>
+          <t>-5,75; 31,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>35,94; 82,1</t>
+          <t>35,43; 81,86</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>22,05; 51,46</t>
+          <t>22,39; 53,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>7,85; 35,0</t>
+          <t>8,12; 35,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>17,49; 46,96</t>
+          <t>16,68; 46,5</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>25,82; 50,9</t>
+          <t>23,61; 48,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,56; 31,12</t>
+          <t>8,38; 30,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>29,07; 55,13</t>
+          <t>29,71; 56,42</t>
         </is>
       </c>
     </row>
